--- a/biology/Écologie/Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre/Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre.xlsx
+++ b/biology/Écologie/Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre/Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marais_et_tourbi%C3%A8res_des_vall%C3%A9es_de_la_Somme_et_de_l%27Avre</t>
+          <t>Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Marais et tourbières des vallées de la Somme et de l'Avre sont une zone humide d’importance internationale située dans le département de la Somme, labellisé le 18 décembre 2017 au titre de la Convention de Ramsar. Cet espace est intégré au réseau européen Natura 2000.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marais_et_tourbi%C3%A8res_des_vall%C3%A9es_de_la_Somme_et_de_l%27Avre</t>
+          <t>Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espace labellisé Ramsar s'étend pour la vallée de la Somme, de l'amont vers l'aval de Ham[Note 1] à Grand-Laviers et pour la vallée de l'Avre, de Warsy à sa confluence avec la Somme entre Longueau et Camon. S'étendant sur plus de 200 km de long, cet espace se prolonge à l'ouest par la Baie de Somme, autre espace labellisé Ramsar[1].
-L'ensemble se compose des éléments suivants[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espace labellisé Ramsar s'étend pour la vallée de la Somme, de l'amont vers l'aval de Ham[Note 1] à Grand-Laviers et pour la vallée de l'Avre, de Warsy à sa confluence avec la Somme entre Longueau et Camon. S'étendant sur plus de 200 km de long, cet espace se prolonge à l'ouest par la Baie de Somme, autre espace labellisé Ramsar.
+L'ensemble se compose des éléments suivants :
 Les Hortillonnages à Amiens, Rivery, Camon et Longueau ;
 sites protégés par un Arrêté préfectoral de protection de biotope :
 Vallée d'Acon à La Chaussée-Tirancourt (ZNIEFF n°220 013 451),
@@ -549,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marais_et_tourbi%C3%A8res_des_vall%C3%A9es_de_la_Somme_et_de_l%27Avre</t>
+          <t>Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,22 +581,172 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette zone humide d'une superficie de 13 100 hectares, dont l'alimentation en eau provient de la nappe phréatique de la craie et des alluvions de fond de vallée, abrite dans ses marais tourbeux des espèces animales et végétales menacées. Près des 3/4 de la population du département de la Somme vit à proximité de cette zone d'une grande importance culturelle et historique : les terrasses fluviales de la Somme et de l'Avre conservent les traces des premières occupations humaines du nord-ouest européen[3].
-Les marais et tourbières des vallées de la Somme et de l'Avre sont des lieux de nidification et de stationnement de nombreux oiseaux paludicoles. La  préservation de ces espaces et de leur végétation terrestre, amphibie ou aquatique propre aux tourbières alcalines permet d'assurer le cycle de vie des oiseaux paludicoles[4].
-Faune
-Poissons
-Anguille d'Europe, espèce très menacée...
-Oiseaux
-Blongios nain,
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette zone humide d'une superficie de 13 100 hectares, dont l'alimentation en eau provient de la nappe phréatique de la craie et des alluvions de fond de vallée, abrite dans ses marais tourbeux des espèces animales et végétales menacées. Près des 3/4 de la population du département de la Somme vit à proximité de cette zone d'une grande importance culturelle et historique : les terrasses fluviales de la Somme et de l'Avre conservent les traces des premières occupations humaines du nord-ouest européen.
+Les marais et tourbières des vallées de la Somme et de l'Avre sont des lieux de nidification et de stationnement de nombreux oiseaux paludicoles. La  préservation de ces espaces et de leur végétation terrestre, amphibie ou aquatique propre aux tourbières alcalines permet d'assurer le cycle de vie des oiseaux paludicoles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marais_et_tourbi%C3%A8res_des_vall%C3%A9es_de_la_Somme_et_de_l%27Avre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anguille d'Europe, espèce très menacée...</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marais_et_tourbi%C3%A8res_des_vall%C3%A9es_de_la_Somme_et_de_l%27Avre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Blongios nain,
 Butor étoilé,
-Locustelle luscinioïde...
-Insectes
-Cordulie à corps fin (Oxygastra curtisii)
-Phalène sagittée...
-Flore
-l’Ache rampante (Helosciadium repens),
+Locustelle luscinioïde...</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marais_et_tourbi%C3%A8res_des_vall%C3%A9es_de_la_Somme_et_de_l%27Avre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cordulie à corps fin (Oxygastra curtisii)
+Phalène sagittée...</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marais_et_tourbi%C3%A8res_des_vall%C3%A9es_de_la_Somme_et_de_l%27Avre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>l’Ache rampante (Helosciadium repens),
 la Calamagrostide blanchâtre (Calamagrostis canescens),
 la Fougère à crète
 la Grande Douve (Ranunculus lingua),
@@ -590,31 +754,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marais_et_tourbi%C3%A8res_des_vall%C3%A9es_de_la_Somme_et_de_l%27Avre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marais_et_tourbi%C3%A8res_des_vall%C3%A9es_de_la_Somme_et_de_l%27Avre</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Administration, plan de gestion et réglementation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les « Marais et tourbières des vallées de la Somme et de l’Avre » sont placés sous l'autorité du Département de la Somme qui élabore la plan de gestion du site et coordonne les différentes actions à mener avec les organismes partenaires. Préserver, conserver et valoriser
 les marais et tourbières des vallées de la Somme telle est la mission que s'est fixé le département. Ce plan de gestion détermine des grandes orientations et propose un plan d’actions pour la mise en oeuvre de projets visant à la conservation et à l’utilisation rationnelle des zones humides.
@@ -632,37 +798,43 @@
 renforcer l’éligibilité du territoire à d’importants programmes de financement,
 animer un travail collectif impliquant les habitants et les usagers,
 s’inscrire en continuité du site Ramsar Baie de Somme,
-faire partie d’un réseau de sites Ramsar[5].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Marais_et_tourbi%C3%A8res_des_vall%C3%A9es_de_la_Somme_et_de_l%27Avre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+faire partie d’un réseau de sites Ramsar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marais_et_tourbières_des_vallées_de_la_Somme_et_de_l'Avre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marais_et_tourbi%C3%A8res_des_vall%C3%A9es_de_la_Somme_et_de_l%27Avre</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Pour approfondir</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Liens internes
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Marais et tourbières des vallées de la Somme et de l'Avre, sur Wikimedia Commons
 Étangs de La Barette
